--- a/TestData/Emails.xlsx
+++ b/TestData/Emails.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C149594-5349-4142-A2DD-7BE1E057E26A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E1096D-425F-4DBA-B975-DDF4CFF6F150}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="InvaildTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidTestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
